--- a/Programfiles/Testing/Results/Objectdetection/zed_fast.xlsx
+++ b/Programfiles/Testing/Results/Objectdetection/zed_fast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Confidence_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>BBox_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BBox_2</t>
         </is>
       </c>
     </row>
@@ -471,16 +481,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>96.29000000000001</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[[ 694.    0.]
- [1277.    0.]
- [1277.  715.]
- [ 694.  715.]]</t>
-        </is>
-      </c>
+        <v>81.93000000000001</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -493,16 +505,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[[ 681.    0.]
- [1277.    0.]
- [1277.  714.]
- [ 681.  714.]]</t>
-        </is>
-      </c>
+        <v>82.28</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -515,16 +529,18 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>96.44</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[[ 672.    0.]
- [1277.    0.]
- [1277.  713.]
- [ 672.  713.]]</t>
-        </is>
-      </c>
+        <v>82.42</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -537,16 +553,18 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>95.51000000000001</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[[ 642.    0.]
- [1277.    0.]
- [1277.  712.]
- [ 642.  712.]]</t>
-        </is>
-      </c>
+        <v>82.37</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -559,16 +577,18 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[[ 601.    0.]
- [1277.    0.]
- [1277.  714.]
- [ 601.  714.]]</t>
-        </is>
-      </c>
+        <v>82.31999999999999</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -581,16 +601,18 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>95.45999999999999</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[[ 574.    0.]
- [1277.    0.]
- [1277.  715.]
- [ 574.  715.]]</t>
-        </is>
-      </c>
+        <v>82.56999999999999</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -603,16 +625,18 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>93.45999999999999</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[[ 562.    0.]
- [1277.    0.]
- [1277.  711.]
- [ 562.  711.]]</t>
-        </is>
-      </c>
+        <v>82.37</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -625,16 +649,18 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[[ 557.    0.]
- [1277.    0.]
- [1277.  710.]
- [ 557.  710.]]</t>
-        </is>
-      </c>
+        <v>82.03</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -647,16 +673,18 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>95.06999999999999</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[[ 560.    0.]
- [1277.    0.]
- [1277.  713.]
- [ 560.  713.]]</t>
-        </is>
-      </c>
+        <v>82.31999999999999</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -669,16 +697,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>94.73</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[[ 567.    0.]
- [1277.    0.]
- [1277.  712.]
- [ 567.  712.]]</t>
-        </is>
-      </c>
+        <v>82.62</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -691,16 +721,18 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>94.48</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[[5.730e+02 1.000e+00]
- [1.277e+03 1.000e+00]
- [1.277e+03 7.120e+02]
- [5.730e+02 7.120e+02]]</t>
-        </is>
-      </c>
+        <v>82.52</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[[275. 405.]
+ [320. 405.]
+ [320. 564.]
+ [275. 564.]]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -713,16 +745,18 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>95.17</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[[ 571.    3.]
- [1277.    3.]
- [1277.  713.]
- [ 571.  713.]]</t>
-        </is>
-      </c>
+        <v>82.31999999999999</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [320. 405.]
+ [320. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -735,280 +769,3420 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>94.58</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[[ 572.    6.]
- [1277.    6.]
- [1277.  713.]
- [ 572.  713.]]</t>
-        </is>
-      </c>
+        <v>82.56999999999999</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[[275. 405.]
+ [320. 405.]
+ [320. 564.]
+ [275. 564.]]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[[ 577.   29.]
- [1277.   29.]
- [1277.  713.]
- [ 577.  713.]]</t>
-        </is>
-      </c>
+        <v>82.52</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[[275. 405.]
+ [321. 405.]
+ [321. 564.]
+ [275. 564.]]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[[ 580.   40.]
- [1277.   40.]
- [1277.  714.]
- [ 580.  714.]]</t>
-        </is>
-      </c>
+        <v>82.56999999999999</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [321. 405.]
+ [321. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[[ 581.   42.]
- [1277.   42.]
- [1277.  715.]
- [ 581.  715.]]</t>
-        </is>
-      </c>
+        <v>82.91</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[[274. 405.]
+ [321. 405.]
+ [321. 564.]
+ [274. 564.]]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>94.43000000000001</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[[ 588.   37.]
- [1277.   37.]
- [1277.  714.]
- [ 588.  714.]]</t>
-        </is>
-      </c>
+        <v>82.56999999999999</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[[275. 405.]
+ [320. 405.]
+ [320. 564.]
+ [275. 564.]]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>91.89</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[[ 591.   58.]
- [1277.   58.]
- [1277.  713.]
- [ 591.  713.]]</t>
-        </is>
-      </c>
+        <v>82.42</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[[275. 405.]
+ [321. 405.]
+ [321. 564.]
+ [275. 564.]]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>91.06</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[[ 585.   64.]
- [1277.   64.]
- [1277.  714.]
- [ 585.  714.]]</t>
-        </is>
-      </c>
+        <v>82.08</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[[275. 405.]
+ [320. 405.]
+ [320. 564.]
+ [275. 564.]]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>93.51000000000001</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[[ 540.   66.]
- [1277.   66.]
- [1277.  714.]
- [ 540.  714.]]</t>
-        </is>
-      </c>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[[276. 406.]
+ [320. 406.]
+ [320. 564.]
+ [276. 564.]]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>89.98999999999999</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[[ 513.   68.]
- [1277.   68.]
- [1277.  715.]
- [ 513.  715.]]</t>
-        </is>
-      </c>
+        <v>83.64</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[[277. 405.]
+ [321. 405.]
+ [321. 564.]
+ [277. 564.]]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>94.29000000000001</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>[[ 498.   69.]
- [1277.   69.]
- [1277.  713.]
- [ 498.  713.]]</t>
-        </is>
-      </c>
+        <v>85.40000000000001</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[[278. 405.]
+ [321. 405.]
+ [321. 563.]
+ [278. 563.]]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>94.48</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[[ 498.   68.]
- [1277.   68.]
- [1277.  713.]
- [ 498.  713.]]</t>
-        </is>
-      </c>
+        <v>85.89</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[[279. 405.]
+ [323. 405.]
+ [323. 564.]
+ [279. 564.]]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>94.14</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>[[ 502.   67.]
- [1277.   67.]
- [1277.  713.]
- [ 502.  713.]]</t>
-        </is>
-      </c>
+        <v>84.56999999999999</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[[280. 405.]
+ [325. 405.]
+ [325. 564.]
+ [280. 564.]]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>94.29000000000001</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[[ 505.   65.]
- [1277.   65.]
- [1277.  714.]
- [ 505.  714.]]</t>
-        </is>
-      </c>
+        <v>84.47</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[[282. 406.]
+ [332. 406.]
+ [332. 564.]
+ [282. 564.]]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[[285. 406.]
+ [338. 406.]
+ [338. 563.]
+ [285. 563.]]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>84.56999999999999</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[[289. 407.]
+ [340. 407.]
+ [340. 563.]
+ [289. 563.]]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>84.91</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[[290. 407.]
+ [340. 407.]
+ [340. 563.]
+ [290. 563.]]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[[291. 406.]
+ [340. 406.]
+ [340. 562.]
+ [291. 562.]]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>81.88</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[[292. 406.]
+ [342. 406.]
+ [342. 562.]
+ [292. 562.]]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>85.01000000000001</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[[295. 406.]
+ [345. 406.]
+ [345. 562.]
+ [295. 562.]]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[[302. 405.]
+ [350. 405.]
+ [350. 562.]
+ [302. 562.]]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>82.42</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[[306. 406.]
+ [353. 406.]
+ [353. 562.]
+ [306. 562.]]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>80.13</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[[311. 405.]
+ [359. 405.]
+ [359. 562.]
+ [311. 562.]]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>81.88</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[[314. 406.]
+ [369. 406.]
+ [369. 563.]
+ [314. 563.]]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>86.72</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[[318. 407.]
+ [383. 407.]
+ [383. 563.]
+ [318. 563.]]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>11</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[[320. 407.]
+ [386. 407.]
+ [386. 564.]
+ [320. 564.]]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>85.16</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[[323. 408.]
+ [387. 408.]
+ [387. 564.]
+ [323. 564.]]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>83.94</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[[323. 407.]
+ [390. 407.]
+ [390. 564.]
+ [323. 564.]]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[[323. 404.]
+ [391. 404.]
+ [391. 564.]
+ [323. 564.]]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[[331. 403.]
+ [391. 403.]
+ [391. 566.]
+ [331. 566.]]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>78.91</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[[338. 402.]
+ [391. 402.]
+ [391. 565.]
+ [338. 565.]]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[[351. 401.]
+ [395. 401.]
+ [395. 564.]
+ [351. 564.]]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>77.88</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[[354. 403.]
+ [399. 403.]
+ [399. 569.]
+ [354. 569.]]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>78.22</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[[357. 405.]
+ [409. 405.]
+ [409. 565.]
+ [357. 565.]]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>73.58</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[[357. 407.]
+ [417. 407.]
+ [417. 566.]
+ [357. 566.]]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>73.78</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[[362. 408.]
+ [422. 408.]
+ [422. 565.]
+ [362. 565.]]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>76.86</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[[366. 409.]
+ [423. 409.]
+ [423. 564.]
+ [366. 564.]]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[[370. 409.]
+ [423. 409.]
+ [423. 561.]
+ [370. 561.]]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>78.42</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[[372. 407.]
+ [424. 407.]
+ [424. 561.]
+ [372. 561.]]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>74.17</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[[379. 407.]
+ [423. 407.]
+ [423. 560.]
+ [379. 560.]]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>74.02</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[[389. 407.]
+ [425. 407.]
+ [425. 562.]
+ [389. 562.]]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>11</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>11</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>11</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>11</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>11</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>11</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>78.91</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[[468. 408.]
+ [516. 408.]
+ [516. 561.]
+ [468. 561.]]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>11</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[[469. 408.]
+ [518. 408.]
+ [518. 561.]
+ [469. 561.]]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>11</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>77.93000000000001</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[[470. 408.]
+ [516. 408.]
+ [516. 560.]
+ [470. 560.]]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>11</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>74.31999999999999</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[[471. 408.]
+ [515. 408.]
+ [515. 560.]
+ [471. 560.]]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>11</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>11</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>11</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>11</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>11</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>74.02</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[[497. 409.]
+ [552. 409.]
+ [552. 561.]
+ [497. 561.]]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>73.58</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[[536. 409.]
+ [582. 409.]
+ [582. 552.]
+ [536. 552.]]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>74.70999999999999</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[[542. 409.]
+ [597. 409.]
+ [597. 559.]
+ [542. 559.]]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>75.44</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[[550. 409.]
+ [610. 409.]
+ [610. 561.]
+ [550. 561.]]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>79.44</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[[557. 409.]
+ [612. 409.]
+ [612. 560.]
+ [557. 560.]]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>75.93000000000001</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[[561. 409.]
+ [614. 409.]
+ [614. 560.]
+ [561. 560.]]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>11</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>73.73</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[[567. 409.]
+ [615. 409.]
+ [615. 561.]
+ [567. 561.]]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>73.23999999999999</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[[573. 408.]
+ [614. 408.]
+ [614. 561.]
+ [573. 561.]]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>11</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>71.29000000000001</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[[580. 408.]
+ [615. 408.]
+ [615. 559.]
+ [580. 559.]]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>11</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[[584. 409.]
+ [618. 409.]
+ [618. 561.]
+ [584. 561.]]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>11</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>70.26000000000001</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[[589. 404.]
+ [627. 404.]
+ [627. 559.]
+ [589. 559.]]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>80.18000000000001</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[[590. 400.]
+ [646. 400.]
+ [646. 560.]
+ [590. 560.]]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>83.64</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[[592. 400.]
+ [652. 400.]
+ [652. 560.]
+ [592. 560.]]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>11</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>83.11</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[[592. 401.]
+ [655. 401.]
+ [655. 560.]
+ [592. 560.]]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>11</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[[593. 400.]
+ [655. 400.]
+ [655. 560.]
+ [593. 560.]]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[[596. 402.]
+ [655. 402.]
+ [655. 561.]
+ [596. 561.]]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>11</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>77.88</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[[603. 406.]
+ [654. 406.]
+ [654. 560.]
+ [603. 560.]]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>11</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>75</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[[617. 408.]
+ [656. 408.]
+ [656. 560.]
+ [617. 560.]]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>11</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[[589. 397.]
+ [621. 397.]
+ [621. 507.]
+ [589. 507.]]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>11</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>73.63</v>
+      </c>
+      <c r="E100" t="n">
+        <v>70.31</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[[627. 407.]
+ [676. 407.]
+ [676. 559.]
+ [627. 559.]]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>[[584. 397.]
+ [612. 397.]
+ [612. 507.]
+ [584. 507.]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>11</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>80.42</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[[630. 407.]
+ [687. 407.]
+ [687. 562.]
+ [630. 562.]]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>11</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[[631. 408.]
+ [693. 408.]
+ [693. 564.]
+ [631. 564.]]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>84.18000000000001</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[[632. 408.]
+ [694. 408.]
+ [694. 563.]
+ [632. 563.]]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>81.64</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[[633. 408.]
+ [695. 408.]
+ [695. 564.]
+ [633. 564.]]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>77.73</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[[634. 408.]
+ [695. 408.]
+ [695. 564.]
+ [634. 564.]]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>82.91</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[[636. 408.]
+ [696. 408.]
+ [696. 564.]
+ [636. 564.]]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>11</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[[648. 408.]
+ [696. 408.]
+ [696. 563.]
+ [648. 563.]]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>11</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[[657. 408.]
+ [696. 408.]
+ [696. 564.]
+ [657. 564.]]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>77.05</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[[662. 407.]
+ [698. 407.]
+ [698. 566.]
+ [662. 566.]]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>11</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>76.56</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[[666. 407.]
+ [712. 407.]
+ [712. 563.]
+ [666. 563.]]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>78.66</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[[668. 407.]
+ [723. 407.]
+ [723. 563.]
+ [668. 563.]]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>80.03</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[[668. 407.]
+ [725. 407.]
+ [725. 564.]
+ [668. 564.]]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>11</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>78.52</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[[670. 406.]
+ [726. 406.]
+ [726. 563.]
+ [670. 563.]]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[[671. 406.]
+ [726. 406.]
+ [726. 564.]
+ [671. 564.]]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>11</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[[671. 404.]
+ [728. 404.]
+ [728. 563.]
+ [671. 563.]]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[[677. 405.]
+ [729. 405.]
+ [729. 564.]
+ [677. 564.]]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[[696. 405.]
+ [735. 405.]
+ [735. 565.]
+ [696. 565.]]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>11</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>79.39</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[[698. 405.]
+ [739. 405.]
+ [739. 567.]
+ [698. 567.]]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>11</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>78.27</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[[701. 405.]
+ [760. 405.]
+ [760. 565.]
+ [701. 565.]]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[[703. 404.]
+ [771. 404.]
+ [771. 564.]
+ [703. 564.]]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>82.28</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[[704. 404.]
+ [770. 404.]
+ [770. 564.]
+ [704. 564.]]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>81.05</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[[705. 405.]
+ [770. 405.]
+ [770. 563.]
+ [705. 563.]]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>81.64</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[[705. 406.]
+ [771. 406.]
+ [771. 563.]
+ [705. 563.]]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[[708. 406.]
+ [771. 406.]
+ [771. 563.]
+ [708. 563.]]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>75.63</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[[718. 407.]
+ [771. 407.]
+ [771. 564.]
+ [718. 564.]]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>72.51000000000001</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[[729. 407.]
+ [770. 407.]
+ [770. 562.]
+ [729. 562.]]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>[[471. 397.]
+ [504. 397.]
+ [504. 508.]
+ [471. 508.]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>73.93000000000001</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[[738. 407.]
+ [777. 407.]
+ [777. 563.]
+ [738. 563.]]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>75.34</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[[740. 407.]
+ [781. 407.]
+ [781. 564.]
+ [740. 564.]]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>74.76000000000001</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[[743. 407.]
+ [804. 407.]
+ [804. 563.]
+ [743. 563.]]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[[744. 407.]
+ [814. 407.]
+ [814. 565.]
+ [744. 565.]]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>76.86</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[[745. 406.]
+ [822. 406.]
+ [822. 575.]
+ [745. 575.]]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>76.95</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[[745. 407.]
+ [823. 407.]
+ [823. 575.]
+ [745. 575.]]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[[750. 406.]
+ [822. 406.]
+ [822. 571.]
+ [750. 571.]]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>11</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>75</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[[782. 406.]
+ [823. 406.]
+ [823. 566.]
+ [782. 566.]]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>11</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>72.66</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[[784. 405.]
+ [829. 405.]
+ [829. 563.]
+ [784. 563.]]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>11</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[[787. 405.]
+ [852. 405.]
+ [852. 564.]
+ [787. 564.]]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>11</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>84.28</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[[789. 406.]
+ [859. 406.]
+ [859. 563.]
+ [789. 563.]]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[[792. 407.]
+ [861. 407.]
+ [861. 565.]
+ [792. 565.]]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>10</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>85.25</v>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[[793. 407.]
+ [862. 407.]
+ [862. 564.]
+ [793. 564.]]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>10</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>83.06</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[[794. 404.]
+ [868. 404.]
+ [868. 564.]
+ [794. 564.]]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>10</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>84.47</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[[798. 403.]
+ [868. 403.]
+ [868. 564.]
+ [798. 564.]]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>10</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>78.81</v>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[[811. 402.]
+ [869. 402.]
+ [869. 561.]
+ [811. 561.]]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>10</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>79</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[[821. 403.]
+ [871. 403.]
+ [871. 561.]
+ [821. 561.]]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>10</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>79.05</v>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[[825. 402.]
+ [875. 402.]
+ [875. 564.]
+ [825. 564.]]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>10</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="E149" t="n">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[[829. 403.]
+ [878. 403.]
+ [878. 563.]
+ [829. 563.]]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[[384. 399.]
+ [421. 399.]
+ [421. 509.]
+ [384. 509.]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>10</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>78.27</v>
+      </c>
+      <c r="E150" t="n">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[[830. 400.]
+ [890. 400.]
+ [890. 562.]
+ [830. 562.]]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[[377. 398.]
+ [421. 398.]
+ [421. 509.]
+ [377. 509.]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>10</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="E151" t="n">
+        <v>72.51000000000001</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[[833. 403.]
+ [893. 403.]
+ [893. 562.]
+ [833. 562.]]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[[375. 397.]
+ [421. 397.]
+ [421. 509.]
+ [375. 509.]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>10</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="E152" t="n">
+        <v>71</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[[835. 402.]
+ [896. 402.]
+ [896. 562.]
+ [835. 562.]]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[[374. 397.]
+ [421. 397.]
+ [421. 509.]
+ [374. 509.]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>10</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>80.27</v>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[[834. 402.]
+ [899. 402.]
+ [899. 563.]
+ [834. 563.]]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>10</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[[837. 397.]
+ [896. 397.]
+ [896. 562.]
+ [837. 562.]]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>10</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>72.56</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[[845. 394.]
+ [895. 394.]
+ [895. 561.]
+ [845. 561.]]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>73.78</v>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[[861. 400.]
+ [904. 400.]
+ [904. 562.]
+ [861. 562.]]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[[864. 400.]
+ [907. 400.]
+ [907. 566.]
+ [864. 566.]]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>80.18000000000001</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[[867. 401.]
+ [927. 401.]
+ [927. 566.]
+ [867. 566.]]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>82.91</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[[869. 403.]
+ [935. 403.]
+ [935. 565.]
+ [869. 565.]]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[[870. 403.]
+ [936. 403.]
+ [936. 565.]
+ [870. 565.]]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>83.34999999999999</v>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[[871. 404.]
+ [936. 404.]
+ [936. 566.]
+ [871. 566.]]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[[871. 404.]
+ [935. 404.]
+ [935. 567.]
+ [871. 567.]]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[[872. 402.]
+ [934. 402.]
+ [934. 566.]
+ [872. 566.]]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
